--- a/web/data/демография/браки/браки шаблон загрузки.xlsx
+++ b/web/data/демография/браки/браки шаблон загрузки.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>Число браков</t>
-  </si>
-  <si>
-    <t>На 1000 населения</t>
   </si>
   <si>
     <t>Всего по области</t>
@@ -150,8 +147,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -278,34 +275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -340,26 +309,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -398,21 +352,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -421,6 +366,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -499,6 +449,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -533,6 +484,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -708,572 +660,482 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="45" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="C1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
+    </row>
+    <row r="4" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="15" t="s">
-        <v>6</v>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>7</v>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="15" t="s">
-        <v>8</v>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15" t="s">
-        <v>9</v>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15" t="s">
-        <v>10</v>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15" t="s">
-        <v>11</v>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15" t="s">
-        <v>12</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="14"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15" t="s">
-        <v>13</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="15" t="s">
-        <v>14</v>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="15" t="s">
-        <v>15</v>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="14"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="15" t="s">
-        <v>16</v>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="15" t="s">
-        <v>17</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="15" t="s">
-        <v>18</v>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="15" t="s">
-        <v>19</v>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="15" t="s">
-        <v>20</v>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A21" s="15" t="s">
-        <v>21</v>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="14"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="15" t="s">
-        <v>22</v>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="14"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="15" t="s">
-        <v>23</v>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="14"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="15" t="s">
-        <v>24</v>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="14"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="15" t="s">
-        <v>25</v>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="15" t="s">
-        <v>26</v>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="15" t="s">
-        <v>27</v>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="15" t="s">
-        <v>28</v>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="14"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="15" t="s">
-        <v>29</v>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="14"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="15" t="s">
-        <v>30</v>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="14"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="15" t="s">
-        <v>31</v>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="14"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="15" t="s">
-        <v>32</v>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="14"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="15" t="s">
-        <v>33</v>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="14"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="15" t="s">
-        <v>34</v>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="14"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="15" t="s">
-        <v>35</v>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="14"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="15" t="s">
-        <v>36</v>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="14"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="15" t="s">
-        <v>37</v>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="14"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="15" t="s">
-        <v>38</v>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="14"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="15" t="s">
-        <v>39</v>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="14"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="15" t="s">
-        <v>40</v>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="14"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="15" t="s">
-        <v>41</v>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="14"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A42" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1282,12 +1144,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
@@ -1295,12 +1157,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
